--- a/CuadroErrores.xlsx
+++ b/CuadroErrores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE2C2B8-3618-4198-8B7F-4A6D54CABDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6883D26D-A0FB-45ED-93CB-696B29334218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E62CA1CE-7C21-4A77-A793-41173621840C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>Nro de caso de prueba</t>
   </si>
@@ -89,41 +89,155 @@
     <t>Lado B: 5</t>
   </si>
   <si>
+    <t>El triangulo es equilatero</t>
+  </si>
+  <si>
+    <t>El triangulo es Isosceles</t>
+  </si>
+  <si>
+    <t>El triangulo es escaleno</t>
+  </si>
+  <si>
+    <t>Ningun lado del triangulo puede ser 0 o menor que 0</t>
+  </si>
+  <si>
+    <t>No permite ingresar valores que no sean numericos</t>
+  </si>
+  <si>
+    <t>Lado C: *</t>
+  </si>
+  <si>
+    <t>Lado A: 17</t>
+  </si>
+  <si>
+    <t>Lado C: 17</t>
+  </si>
+  <si>
+    <t>No es un triangulo, no cumple con la desigualdad triangular</t>
+  </si>
+  <si>
+    <t>Lado A: 1</t>
+  </si>
+  <si>
+    <t>Lado B: 2</t>
+  </si>
+  <si>
+    <t>Lado C: 3</t>
+  </si>
+  <si>
+    <t>Lado A: 2</t>
+  </si>
+  <si>
+    <t>Lado B: 3</t>
+  </si>
+  <si>
+    <t>Lado B: 1</t>
+  </si>
+  <si>
+    <t>Lado C: 2</t>
+  </si>
+  <si>
+    <t>Lado A: 13.3</t>
+  </si>
+  <si>
+    <t>Lado B: 10.5</t>
+  </si>
+  <si>
+    <t>Lado C: 21.4</t>
+  </si>
+  <si>
+    <t>Lado C: 4</t>
+  </si>
+  <si>
+    <t>Lado B: 4</t>
+  </si>
+  <si>
+    <t>14- Si especificamos mensajes claros</t>
+  </si>
+  <si>
+    <t>Lado A:</t>
+  </si>
+  <si>
+    <t>Completa los campos para poder calcular el triangulo</t>
+  </si>
+  <si>
+    <t>Puntos de las consignas</t>
+  </si>
+  <si>
+    <t>(Los subpuntos son los distintos casos de permutaciones)</t>
+  </si>
+  <si>
     <t>Equilatero</t>
   </si>
   <si>
-    <t>El triangulo es equilatero</t>
+    <t>Punto 2</t>
   </si>
   <si>
     <t>Isosceles</t>
   </si>
   <si>
-    <t>El triangulo es Isosceles</t>
+    <t>Punto 3</t>
+  </si>
+  <si>
+    <t>Punto 4.1</t>
   </si>
   <si>
     <t>Escaleno</t>
   </si>
   <si>
-    <t>El triangulo es escaleno</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Ningun lado del triangulo puede ser 0 o menor que 0</t>
-  </si>
-  <si>
-    <t>No permite ingresar valores que no sean numericos</t>
-  </si>
-  <si>
-    <t>Lado C: *</t>
+    <t>Punto 1</t>
+  </si>
+  <si>
+    <t>Punto 6</t>
+  </si>
+  <si>
+    <t>Punto 5</t>
+  </si>
+  <si>
+    <t>Punto 11</t>
+  </si>
+  <si>
+    <t>Punto 4.2</t>
+  </si>
+  <si>
+    <t>Punto 4.3</t>
+  </si>
+  <si>
+    <t>Punto 7</t>
+  </si>
+  <si>
+    <t>Punto 8.1</t>
+  </si>
+  <si>
+    <t>Punto 8.2</t>
+  </si>
+  <si>
+    <t>Punto 8.3</t>
+  </si>
+  <si>
+    <t>Punto 9</t>
+  </si>
+  <si>
+    <t>Punto 10.1</t>
+  </si>
+  <si>
+    <t>Punto 10.2</t>
+  </si>
+  <si>
+    <t>Punto 10.3</t>
+  </si>
+  <si>
+    <t>Punto 12</t>
+  </si>
+  <si>
+    <t>Punto 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +261,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +281,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEE8282"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -185,38 +329,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEE8282"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -525,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41084CD3-C727-426D-84CE-3CDE2F26934E}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,280 +860,1072 @@
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="26"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="26"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="26"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="26"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="12"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="26"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="26"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="26"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="26"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="27" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="26"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="26"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="26"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="26"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="26"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="27" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="10"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="10"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
+      <c r="B22" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="10"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>8</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="10"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="10"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="10"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>9</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="10"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="10"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="10"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>10</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="10"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="10"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>11</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="10"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="10"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="10"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>12</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="10"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="10"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="10"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>17</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="10"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="10"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>18</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="10"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="10"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="10"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>19</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="10"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="10"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="10"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>16</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="10"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="10"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="10"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>20</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="32"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="32"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="32"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="32"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="32"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="32"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="32"/>
+      <c r="B61" s="33"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="32"/>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="31"/>
+      <c r="O62" s="31"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="32"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="31"/>
+      <c r="O63" s="31"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="32"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="73">
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F4"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="C8:C10"/>
@@ -823,7 +1939,62 @@
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:F49"/>
+    <mergeCell ref="E50:F52"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="E41:F43"/>
+    <mergeCell ref="E44:F46"/>
+    <mergeCell ref="E26:F28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E32:F34"/>
+    <mergeCell ref="E35:F37"/>
+    <mergeCell ref="E11:F13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="E17:F19"/>
+    <mergeCell ref="E23:F25"/>
+    <mergeCell ref="E20:F22"/>
+    <mergeCell ref="E8:F10"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
